--- a/registeredVoters.xlsx
+++ b/registeredVoters.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhonatancruz/Desktop/Github/votingMachine/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B830EF0F-ADBF-C843-823B-55316CC0A32E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="1000" windowWidth="25440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14500" windowWidth="25040" xWindow="480" yWindow="680"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>Jhonatan</t>
   </si>
@@ -29,24 +23,34 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Castullicio</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -62,24 +66,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -379,16 +374,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,7 +398,18 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>